--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_23.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_23.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_0</t>
+          <t>model_1_23_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999543966012728</v>
+        <v>0.948390665920232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8240428856980659</v>
+        <v>0.7182181026156933</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8112676387409794</v>
+        <v>0.7656274023920816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997573897746892</v>
+        <v>0.9137830066481449</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001898253646682984</v>
+        <v>0.1656807840539768</v>
       </c>
       <c r="G2" t="n">
-        <v>1.176626033545046</v>
+        <v>1.884276845295192</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6750847128924464</v>
+        <v>0.8383371919394993</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008295913143545376</v>
+        <v>0.2447566784587307</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08265818612032085</v>
+        <v>0.9209032497418593</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04356895278386875</v>
+        <v>0.4070390448765042</v>
       </c>
       <c r="L2" t="n">
-        <v>1.029186175185409</v>
+        <v>0.9297234599764862</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04425512023724038</v>
+        <v>0.4134495029435418</v>
       </c>
       <c r="N2" t="n">
-        <v>142.5336418975931</v>
+        <v>37.59538465913339</v>
       </c>
       <c r="O2" t="n">
-        <v>283.8688144408094</v>
+        <v>74.55996824735921</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_1</t>
+          <t>model_1_23_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995149549981732</v>
+        <v>0.9483777639618228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8229648062525852</v>
+        <v>0.7182133465488367</v>
       </c>
       <c r="D3" t="n">
-        <v>0.809755552799135</v>
+        <v>0.7660234956601831</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993633715410447</v>
+        <v>0.914063087854746</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002019012769269028</v>
+        <v>0.165722203045777</v>
       </c>
       <c r="G3" t="n">
-        <v>1.183835155761075</v>
+        <v>1.884308649136162</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6804933566306433</v>
+        <v>0.8369203892863073</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002176913356984782</v>
+        <v>0.2439615713323826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1082661163440059</v>
+        <v>0.9218125555103119</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04493342596852624</v>
+        <v>0.407089920098468</v>
       </c>
       <c r="L3" t="n">
-        <v>1.031042880116914</v>
+        <v>0.9297058913522693</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04564108251058345</v>
+        <v>0.4135011793993948</v>
       </c>
       <c r="N3" t="n">
-        <v>142.4102932302403</v>
+        <v>37.59488473615589</v>
       </c>
       <c r="O3" t="n">
-        <v>283.7454657734567</v>
+        <v>74.55946832438171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_4</t>
+          <t>model_1_23_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9994118207918028</v>
+        <v>0.9483640314663262</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8220617517049493</v>
+        <v>0.7182078921290255</v>
       </c>
       <c r="D4" t="n">
-        <v>0.808917064441718</v>
+        <v>0.7664221839796529</v>
       </c>
       <c r="E4" t="n">
-        <v>0.998266793498928</v>
+        <v>0.9143441906086582</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002448311656642841</v>
+        <v>0.1657662883001494</v>
       </c>
       <c r="G4" t="n">
-        <v>1.189873885679299</v>
+        <v>1.884345122866555</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6834925808667757</v>
+        <v>0.8354943042848409</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005926597106243663</v>
+        <v>0.2431635641915814</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1516710777868766</v>
+        <v>0.9227349249275962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04948041690045508</v>
+        <v>0.4071440633242113</v>
       </c>
       <c r="L4" t="n">
-        <v>1.037643469324621</v>
+        <v>0.9296871917839336</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0502596840043668</v>
+        <v>0.4135561753268204</v>
       </c>
       <c r="N4" t="n">
-        <v>142.0247132234305</v>
+        <v>37.59435276891379</v>
       </c>
       <c r="O4" t="n">
-        <v>283.3598857666469</v>
+        <v>74.55893635713961</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_5</t>
+          <t>model_1_23_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994086946518517</v>
+        <v>0.9483494147087208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8220033589137572</v>
+        <v>0.7182017554193476</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8089038634374949</v>
+        <v>0.7668235405726074</v>
       </c>
       <c r="E5" t="n">
-        <v>0.998213317021942</v>
+        <v>0.9146261456317248</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00246132429764759</v>
+        <v>0.1658132122898417</v>
       </c>
       <c r="G5" t="n">
-        <v>1.190264358542875</v>
+        <v>1.884386159072427</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6835398000934436</v>
+        <v>0.8340586750238352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006109456756008971</v>
+        <v>0.2423631375907731</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1528179291016516</v>
+        <v>0.9236699365974467</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04961173548312526</v>
+        <v>0.4072016850282446</v>
       </c>
       <c r="L5" t="n">
-        <v>1.037843542281493</v>
+        <v>0.9296672881140028</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05039307072344362</v>
+        <v>0.4136147045150915</v>
       </c>
       <c r="N5" t="n">
-        <v>142.0141114830194</v>
+        <v>37.59378670267722</v>
       </c>
       <c r="O5" t="n">
-        <v>283.3492840262358</v>
+        <v>74.55837029090304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_2</t>
+          <t>model_1_23_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9994250952368119</v>
+        <v>0.9483339056290827</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8219423200243674</v>
+        <v>0.7181948931229813</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8090614666944496</v>
+        <v>0.7672279012074383</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9986300528370463</v>
+        <v>0.9149090478993684</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002393056424906596</v>
+        <v>0.1658630008895247</v>
       </c>
       <c r="G6" t="n">
-        <v>1.190672525877283</v>
+        <v>1.884432047279827</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6829760623816784</v>
+        <v>0.8326123004792216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004684453287387392</v>
+        <v>0.241560021909456</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1380532128456938</v>
+        <v>0.9246183578032859</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04891887595710469</v>
+        <v>0.4072628155006601</v>
       </c>
       <c r="L6" t="n">
-        <v>1.036793904844039</v>
+        <v>0.9296461693672615</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04968929935249364</v>
+        <v>0.4136767977313396</v>
       </c>
       <c r="N6" t="n">
-        <v>142.0703677823672</v>
+        <v>37.59318625443187</v>
       </c>
       <c r="O6" t="n">
-        <v>283.4055403255836</v>
+        <v>74.55776984265769</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_3</t>
+          <t>model_1_23_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.999411255973124</v>
+        <v>0.9483174426970487</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8218550531608484</v>
+        <v>0.7181873120281972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8087199739105843</v>
+        <v>0.7676349729652151</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9985335561540467</v>
+        <v>0.9151928345918904</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002450662729472065</v>
+        <v>0.1659158516293349</v>
       </c>
       <c r="G7" t="n">
-        <v>1.191256079795461</v>
+        <v>1.884482742095556</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6841975622686753</v>
+        <v>0.8311562284050309</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00501441798684698</v>
+        <v>0.240754395483016</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1418895427317271</v>
+        <v>0.9255808902988441</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04950416880902117</v>
+        <v>0.4073276956325643</v>
       </c>
       <c r="L7" t="n">
-        <v>1.037679617720066</v>
+        <v>0.9296237517576833</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0502838099817496</v>
+        <v>0.4137426996604649</v>
       </c>
       <c r="N7" t="n">
-        <v>142.0227935783584</v>
+        <v>37.59254907409496</v>
       </c>
       <c r="O7" t="n">
-        <v>283.3579661215748</v>
+        <v>74.55713266232078</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_6</t>
+          <t>model_1_23_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9993911940700181</v>
+        <v>0.9483000111036659</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8218173999481073</v>
+        <v>0.7181789810713903</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8085795173234218</v>
+        <v>0.7680448665841266</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980996240443886</v>
+        <v>0.9154774711970666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002534170936739833</v>
+        <v>0.1659718120502638</v>
       </c>
       <c r="G8" t="n">
-        <v>1.191507867002439</v>
+        <v>1.884538451242084</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6846999673368145</v>
+        <v>0.8296900626971819</v>
       </c>
       <c r="I8" t="n">
-        <v>0.006498223167484996</v>
+        <v>0.2399463562863072</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1549754798721302</v>
+        <v>0.9265564703424786</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05034054962691442</v>
+        <v>0.4073963819798401</v>
       </c>
       <c r="L8" t="n">
-        <v>1.038963579518843</v>
+        <v>0.9296000151198855</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05113336296145059</v>
+        <v>0.4138124677490492</v>
       </c>
       <c r="N8" t="n">
-        <v>141.9557774841627</v>
+        <v>37.59187462394109</v>
       </c>
       <c r="O8" t="n">
-        <v>283.2909500273792</v>
+        <v>74.55645821216692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_8</t>
+          <t>model_1_23_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9993284341461425</v>
+        <v>0.9482816134620554</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8214066011157255</v>
+        <v>0.7181698888960391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8080577700215501</v>
+        <v>0.7684576543284664</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9974954111153772</v>
+        <v>0.9157628673854319</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002795410795363278</v>
+        <v>0.1660308737634426</v>
       </c>
       <c r="G9" t="n">
-        <v>1.19425488068613</v>
+        <v>1.884599250660524</v>
       </c>
       <c r="H9" t="n">
-        <v>0.686566227182963</v>
+        <v>0.8282135448704873</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008564293537299124</v>
+        <v>0.2391361607506776</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1657468430064037</v>
+        <v>0.9275446341722408</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05287164453053525</v>
+        <v>0.4074688623237886</v>
       </c>
       <c r="L9" t="n">
-        <v>1.042980214646882</v>
+        <v>0.9295749630121606</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0537043200796368</v>
+        <v>0.4138860895859612</v>
       </c>
       <c r="N9" t="n">
-        <v>141.7595524161792</v>
+        <v>37.59116304278436</v>
       </c>
       <c r="O9" t="n">
-        <v>283.0947249593956</v>
+        <v>74.55574663101018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_7</t>
+          <t>model_1_23_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9993417718555545</v>
+        <v>0.9482622050020728</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8213700426055466</v>
+        <v>0.7181600020750731</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8080004936644479</v>
+        <v>0.7688732508917367</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9975932823159083</v>
+        <v>0.9160492280995638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002739892223861151</v>
+        <v>0.1660931804938923</v>
       </c>
       <c r="G10" t="n">
-        <v>1.194499347612034</v>
+        <v>1.884665363877847</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6867711013912434</v>
+        <v>0.8267269800613425</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008229628756447194</v>
+        <v>0.2383232270759208</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1641589068191205</v>
+        <v>0.9285472045795022</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05234397982443779</v>
+        <v>0.4075453109703169</v>
       </c>
       <c r="L10" t="n">
-        <v>1.042126601244512</v>
+        <v>0.9295485344709077</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0531683451818895</v>
+        <v>0.4139637422222516</v>
       </c>
       <c r="N10" t="n">
-        <v>141.799673387426</v>
+        <v>37.59041263966984</v>
       </c>
       <c r="O10" t="n">
-        <v>283.1348459306424</v>
+        <v>74.55499622789566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_9</t>
+          <t>model_1_23_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9991809945012363</v>
+        <v>0.9482417647099183</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8208178776708382</v>
+        <v>0.7181493263323113</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8074098227216339</v>
+        <v>0.7692917766239153</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9965383708871618</v>
+        <v>0.9163363609958586</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00340913225345655</v>
+        <v>0.1661587997019454</v>
       </c>
       <c r="G11" t="n">
-        <v>1.198191677072914</v>
+        <v>1.884736752618853</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6888838971046201</v>
+        <v>0.8252299377848556</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01183683598598714</v>
+        <v>0.2375081012957101</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1804224585871589</v>
+        <v>0.9295632829806887</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05838777486303576</v>
+        <v>0.4076258084345806</v>
       </c>
       <c r="L11" t="n">
-        <v>1.052416351920876</v>
+        <v>0.9295207008815909</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05930732395076684</v>
+        <v>0.4140455074411096</v>
       </c>
       <c r="N11" t="n">
-        <v>141.3625949823942</v>
+        <v>37.58962264637779</v>
       </c>
       <c r="O11" t="n">
-        <v>282.6977675256106</v>
+        <v>74.55420623460361</v>
       </c>
     </row>
   </sheetData>
